--- a/Data/Koweps_Codebook.xlsx
+++ b/Data/Koweps_Codebook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="조사 설계서" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,7 +54,6 @@
         <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -84,8 +83,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">1.</t>
     </r>
@@ -103,8 +101,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -136,8 +133,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -155,8 +151,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=9</t>
     </r>
@@ -167,8 +162,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -186,8 +180,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">_</t>
     </r>
@@ -205,8 +198,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">.xlsx</t>
     </r>
@@ -238,8 +230,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -257,8 +248,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=9999</t>
     </r>
@@ -275,8 +265,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">0.</t>
     </r>
@@ -294,8 +283,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(18</t>
     </r>
@@ -313,8 +301,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)
 1.</t>
@@ -333,8 +320,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -352,8 +338,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">3.</t>
     </r>
@@ -371,8 +356,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">4.</t>
     </r>
@@ -391,8 +375,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">5.</t>
     </r>
@@ -410,8 +393,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(18</t>
     </r>
@@ -429,8 +411,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -448,8 +429,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)   6.</t>
     </r>
@@ -467,8 +447,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -486,8 +465,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -508,7 +486,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">1.</t>
     </r>
@@ -527,7 +504,6 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -556,8 +532,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">N(</t>
     </r>
@@ -575,8 +550,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -599,8 +573,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(2015</t>
     </r>
@@ -618,8 +591,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -637,8 +609,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -656,8 +627,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -675,8 +645,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(beta1).xlsx</t>
     </r>
@@ -690,8 +659,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -711,8 +679,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -730,8 +697,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -749,8 +715,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -768,8 +733,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -787,8 +751,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)    3. </t>
     </r>
@@ -806,8 +769,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -825,8 +787,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -844,8 +805,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">4.</t>
     </r>
@@ -863,8 +823,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -883,8 +842,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">5. </t>
     </r>
@@ -902,8 +860,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -921,8 +878,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">6. </t>
     </r>
@@ -940,8 +896,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -959,8 +914,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">7.</t>
     </r>
@@ -978,8 +932,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -997,8 +950,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -1016,8 +968,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -1040,8 +991,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(2015</t>
     </r>
@@ -1059,8 +1009,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -1078,8 +1027,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -1097,8 +1045,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -1116,8 +1063,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(beta1).xlsx</t>
     </r>
@@ -1582,7 +1528,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0111 </t>
     </r>
@@ -1603,7 +1548,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0112 </t>
     </r>
@@ -1624,7 +1568,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0120 </t>
     </r>
@@ -1645,7 +1588,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0131 </t>
     </r>
@@ -1666,7 +1608,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0132 </t>
     </r>
@@ -1687,7 +1628,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0133 </t>
     </r>
@@ -1708,7 +1648,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0134 </t>
     </r>
@@ -1729,7 +1668,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0135 </t>
     </r>
@@ -1750,7 +1688,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0139 </t>
     </r>
@@ -1771,7 +1708,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0141 </t>
     </r>
@@ -1792,7 +1728,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0149 </t>
     </r>
@@ -1813,7 +1748,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0151 </t>
     </r>
@@ -1834,7 +1768,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0152 </t>
     </r>
@@ -1855,7 +1788,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0153 </t>
     </r>
@@ -1876,7 +1808,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0159 </t>
     </r>
@@ -1897,7 +1828,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0211 </t>
     </r>
@@ -1918,7 +1848,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0212 </t>
     </r>
@@ -1939,7 +1868,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0213 </t>
     </r>
@@ -1960,7 +1888,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0221 </t>
     </r>
@@ -1981,7 +1908,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0222 </t>
     </r>
@@ -2002,7 +1928,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0223 </t>
     </r>
@@ -2023,7 +1948,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0224 </t>
     </r>
@@ -2044,7 +1968,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0231 </t>
     </r>
@@ -2065,7 +1988,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0232 </t>
     </r>
@@ -2086,7 +2008,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0233 </t>
     </r>
@@ -2107,7 +2028,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0234 </t>
     </r>
@@ -2128,7 +2048,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0235 </t>
     </r>
@@ -2149,7 +2068,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0236 </t>
     </r>
@@ -2170,7 +2088,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0237 </t>
     </r>
@@ -2191,7 +2108,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0239 </t>
     </r>
@@ -2212,7 +2128,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0241 </t>
     </r>
@@ -2233,7 +2148,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0242 </t>
     </r>
@@ -2254,7 +2168,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0243 </t>
     </r>
@@ -2275,7 +2188,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0244 </t>
     </r>
@@ -2296,7 +2208,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0245 </t>
     </r>
@@ -2317,7 +2228,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0246 </t>
     </r>
@@ -2338,7 +2248,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0247 </t>
     </r>
@@ -2359,7 +2268,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0248 </t>
     </r>
@@ -2380,7 +2288,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0251 </t>
     </r>
@@ -2401,7 +2308,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0252 </t>
     </r>
@@ -2422,7 +2328,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0253 </t>
     </r>
@@ -2443,7 +2348,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0254 </t>
     </r>
@@ -2464,7 +2368,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0259 </t>
     </r>
@@ -2485,7 +2388,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0261 </t>
     </r>
@@ -2506,7 +2408,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0262 </t>
     </r>
@@ -2527,7 +2428,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0271 </t>
     </r>
@@ -2548,7 +2448,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0272 </t>
     </r>
@@ -2569,7 +2468,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0273 </t>
     </r>
@@ -2590,7 +2488,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0274 </t>
     </r>
@@ -2611,7 +2508,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0281 </t>
     </r>
@@ -2632,7 +2528,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0282 </t>
     </r>
@@ -2653,7 +2548,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0283 </t>
     </r>
@@ -2674,7 +2568,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0284 </t>
     </r>
@@ -2695,7 +2588,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0285 </t>
     </r>
@@ -2716,7 +2608,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0286 </t>
     </r>
@@ -2737,7 +2628,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0289 </t>
     </r>
@@ -2758,7 +2648,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0311 </t>
     </r>
@@ -2779,7 +2668,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0312 </t>
     </r>
@@ -2800,7 +2688,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0313 </t>
     </r>
@@ -2821,7 +2708,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0314 </t>
     </r>
@@ -2842,7 +2728,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0320 </t>
     </r>
@@ -2863,7 +2748,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0330 </t>
     </r>
@@ -2884,7 +2768,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0391 </t>
     </r>
@@ -2905,7 +2788,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0392 </t>
     </r>
@@ -2926,7 +2808,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0399 </t>
     </r>
@@ -2947,7 +2828,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0411 </t>
     </r>
@@ -2968,7 +2848,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0412 </t>
     </r>
@@ -2989,7 +2868,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0421 </t>
     </r>
@@ -3010,7 +2888,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0422 </t>
     </r>
@@ -3031,7 +2908,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0423 </t>
     </r>
@@ -3052,7 +2928,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0429 </t>
     </r>
@@ -3073,7 +2948,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0431 </t>
     </r>
@@ -3094,7 +2968,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0432 </t>
     </r>
@@ -3115,7 +2988,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0441 </t>
     </r>
@@ -3136,7 +3008,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0442 </t>
     </r>
@@ -3157,7 +3028,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0510 </t>
     </r>
@@ -3178,7 +3048,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0521 </t>
     </r>
@@ -3199,7 +3068,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0522 </t>
     </r>
@@ -3220,7 +3088,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0530 </t>
     </r>
@@ -3241,7 +3108,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0611 </t>
     </r>
@@ -3262,7 +3128,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0612 </t>
     </r>
@@ -3283,7 +3148,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0613 </t>
     </r>
@@ -3304,7 +3168,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0620 </t>
     </r>
@@ -3325,7 +3188,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0630 </t>
     </r>
@@ -3346,7 +3208,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0710 </t>
     </r>
@@ -3367,7 +3228,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0721 </t>
     </r>
@@ -3388,7 +3248,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0722 </t>
     </r>
@@ -3409,7 +3268,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0730 </t>
     </r>
@@ -3430,7 +3288,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0741 </t>
     </r>
@@ -3451,7 +3308,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0742 </t>
     </r>
@@ -3472,7 +3328,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0743 </t>
     </r>
@@ -3493,7 +3348,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0751 </t>
     </r>
@@ -3514,7 +3368,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0752 </t>
     </r>
@@ -3535,7 +3388,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0753 </t>
     </r>
@@ -3556,7 +3408,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0761 </t>
     </r>
@@ -3577,7 +3428,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0762 </t>
     </r>
@@ -3598,7 +3448,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0771 </t>
     </r>
@@ -3619,7 +3468,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0772 </t>
     </r>
@@ -3640,7 +3488,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0773 </t>
     </r>
@@ -3661,7 +3508,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0774 </t>
     </r>
@@ -3682,7 +3528,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0780 </t>
     </r>
@@ -3703,7 +3548,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0791 </t>
     </r>
@@ -3724,7 +3568,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0792 </t>
     </r>
@@ -3745,7 +3588,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0799 </t>
     </r>
@@ -3766,7 +3608,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0811 </t>
     </r>
@@ -3787,7 +3628,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0812 </t>
     </r>
@@ -3808,7 +3648,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0819 </t>
     </r>
@@ -3829,7 +3668,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0821 </t>
     </r>
@@ -3850,7 +3688,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0822 </t>
     </r>
@@ -3871,7 +3708,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0823 </t>
     </r>
@@ -3892,7 +3728,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0831 </t>
     </r>
@@ -3913,7 +3748,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0832 </t>
     </r>
@@ -3934,7 +3768,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0841 </t>
     </r>
@@ -3955,7 +3788,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0842 </t>
     </r>
@@ -3976,7 +3808,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0843 </t>
     </r>
@@ -3997,7 +3828,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0851 </t>
     </r>
@@ -4018,7 +3848,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0852 </t>
     </r>
@@ -4039,7 +3868,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0853 </t>
     </r>
@@ -4060,7 +3888,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0854 </t>
     </r>
@@ -4081,7 +3908,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0855 </t>
     </r>
@@ -4102,7 +3928,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0861 </t>
     </r>
@@ -4123,7 +3948,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0862 </t>
     </r>
@@ -4144,7 +3968,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0863 </t>
     </r>
@@ -4165,7 +3988,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0864 </t>
     </r>
@@ -4186,7 +4008,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0871 </t>
     </r>
@@ -4207,7 +4028,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0872 </t>
     </r>
@@ -4228,7 +4048,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0873 </t>
     </r>
@@ -4249,7 +4068,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0874 </t>
     </r>
@@ -4270,7 +4088,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0875 </t>
     </r>
@@ -4291,7 +4108,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0876 </t>
     </r>
@@ -4312,7 +4128,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0881 </t>
     </r>
@@ -4333,7 +4148,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0882 </t>
     </r>
@@ -4354,7 +4168,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0891 </t>
     </r>
@@ -4375,7 +4188,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0892 </t>
     </r>
@@ -4396,7 +4208,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0899 </t>
     </r>
@@ -4417,7 +4228,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0910 </t>
     </r>
@@ -4438,7 +4248,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0921 </t>
     </r>
@@ -4459,7 +4268,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0922 </t>
     </r>
@@ -4480,7 +4288,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0930 </t>
     </r>
@@ -4501,7 +4308,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0941 </t>
     </r>
@@ -4522,7 +4328,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0942 </t>
     </r>
@@ -4543,7 +4348,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0951 </t>
     </r>
@@ -4564,7 +4368,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0952 </t>
     </r>
@@ -4585,7 +4388,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0953 </t>
     </r>
@@ -4606,7 +4408,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0991 </t>
     </r>
@@ -4627,7 +4428,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0992 </t>
     </r>
@@ -4648,7 +4448,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">0999 </t>
     </r>
@@ -4669,7 +4468,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">1011 </t>
     </r>
@@ -4690,7 +4488,6 @@
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
         <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">1012 </t>
     </r>
@@ -4758,8 +4555,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4777,8 +4573,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  14,  </t>
     </r>
@@ -4796,8 +4591,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  15,  ...)</t>
     </r>
@@ -4826,8 +4620,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4845,8 +4638,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  24,  </t>
     </r>
@@ -4864,8 +4656,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  25,  ...)</t>
     </r>
@@ -4885,8 +4676,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -4904,8 +4694,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4923,8 +4712,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  31,  </t>
     </r>
@@ -4942,8 +4730,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  32,  ...)</t>
     </r>
@@ -4963,8 +4750,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -4982,8 +4768,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5001,8 +4786,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  41,  </t>
     </r>
@@ -5020,8 +4804,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  42,  ...)</t>
     </r>
@@ -5041,8 +4824,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -5060,8 +4842,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5079,8 +4860,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  51,  </t>
     </r>
@@ -5098,8 +4878,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  52,  ...)</t>
     </r>
@@ -5119,8 +4898,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -5138,8 +4916,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5157,8 +4934,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  61,  </t>
     </r>
@@ -5176,8 +4952,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  62,  ...)</t>
     </r>
@@ -5200,8 +4975,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5219,8 +4993,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  113,  </t>
     </r>
@@ -5238,8 +5011,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  114,  ...)</t>
     </r>
@@ -5262,8 +5034,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5281,8 +5052,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  123,  </t>
     </r>
@@ -5300,8 +5070,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  134,  ...)</t>
     </r>
@@ -5324,8 +5093,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5343,8 +5111,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  133,  </t>
     </r>
@@ -5362,8 +5129,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  134,  ...)</t>
     </r>
@@ -5386,8 +5152,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5405,8 +5170,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  213,  </t>
     </r>
@@ -5424,8 +5188,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  214,  ...)</t>
     </r>
@@ -5448,8 +5211,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5467,8 +5229,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  223,  </t>
     </r>
@@ -5486,8 +5247,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  224,  ...)</t>
     </r>
@@ -5510,8 +5270,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5529,8 +5288,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  233,  </t>
     </r>
@@ -5548,8 +5306,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">=  234,  ...)</t>
     </r>
@@ -5569,8 +5326,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5588,8 +5344,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5609,8 +5364,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -5628,8 +5382,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5667,12 +5420,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF006100"/>
@@ -5684,7 +5431,6 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b val="true"/>
@@ -5692,21 +5438,24 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8.1"/>
       <color rgb="FF000000"/>
       <name val="굴림"/>
       <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8.1"/>
@@ -5772,7 +5521,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5796,19 +5545,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5817,12 +5558,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -5833,27 +5578,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5861,25 +5606,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="표준 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="표준 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Good" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -5951,19 +5694,19 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="70.0232558139535"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="71.1302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.2232558139535"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,7 +5736,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6002,7 +5745,7 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6022,7 +5765,7 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6033,7 +5776,7 @@
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6042,11 +5785,11 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -6062,7 +5805,7 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6076,13 +5819,13 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6102,7 +5845,7 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6110,16 +5853,16 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6147,1208 +5890,1208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="50.9488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>133</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>134</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>135</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>139</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>149</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>152</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>159</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>211</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>212</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>213</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="8" t="n">
         <v>222</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="8" t="n">
         <v>223</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="8" t="n">
         <v>231</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="8" t="n">
         <v>232</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="8" t="n">
         <v>233</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="8" t="n">
         <v>234</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="8" t="n">
         <v>235</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="8" t="n">
         <v>237</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="8" t="n">
         <v>239</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="8" t="n">
         <v>241</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="8" t="n">
         <v>242</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="8" t="n">
         <v>243</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="8" t="n">
         <v>244</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="8" t="n">
         <v>245</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="8" t="n">
         <v>246</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="8" t="n">
         <v>247</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="8" t="n">
         <v>248</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="8" t="n">
         <v>251</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="8" t="n">
         <v>252</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="8" t="n">
         <v>253</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="8" t="n">
         <v>254</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="8" t="n">
         <v>259</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="8" t="n">
         <v>261</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="8" t="n">
         <v>262</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="8" t="n">
         <v>271</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="8" t="n">
         <v>272</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="8" t="n">
         <v>273</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+      <c r="A50" s="8" t="n">
         <v>274</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+      <c r="A51" s="8" t="n">
         <v>281</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+      <c r="A52" s="8" t="n">
         <v>282</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+      <c r="A53" s="8" t="n">
         <v>283</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+      <c r="A54" s="8" t="n">
         <v>284</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+      <c r="A55" s="8" t="n">
         <v>285</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
+      <c r="A56" s="8" t="n">
         <v>286</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
+      <c r="A57" s="8" t="n">
         <v>289</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="8" t="n">
         <v>311</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="8" t="n">
         <v>312</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
+      <c r="A60" s="8" t="n">
         <v>313</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
+      <c r="A61" s="8" t="n">
         <v>314</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="n">
+      <c r="A62" s="8" t="n">
         <v>320</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="n">
+      <c r="A63" s="8" t="n">
         <v>330</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="n">
+      <c r="A64" s="8" t="n">
         <v>391</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="n">
+      <c r="A65" s="8" t="n">
         <v>392</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="n">
+      <c r="A66" s="8" t="n">
         <v>399</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="n">
+      <c r="A67" s="8" t="n">
         <v>411</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="n">
+      <c r="A68" s="8" t="n">
         <v>412</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="n">
+      <c r="A69" s="8" t="n">
         <v>421</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="n">
+      <c r="A70" s="8" t="n">
         <v>422</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="n">
+      <c r="A71" s="8" t="n">
         <v>423</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="n">
+      <c r="A72" s="8" t="n">
         <v>429</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="n">
+      <c r="A73" s="8" t="n">
         <v>431</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="n">
+      <c r="A74" s="8" t="n">
         <v>432</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="n">
+      <c r="A75" s="8" t="n">
         <v>441</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="n">
+      <c r="A76" s="8" t="n">
         <v>442</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="n">
+      <c r="A77" s="8" t="n">
         <v>510</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="n">
+      <c r="A78" s="8" t="n">
         <v>521</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="n">
+      <c r="A79" s="8" t="n">
         <v>522</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="n">
+      <c r="A80" s="8" t="n">
         <v>530</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="n">
+      <c r="A81" s="8" t="n">
         <v>611</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="n">
+      <c r="A82" s="8" t="n">
         <v>612</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="n">
+      <c r="A83" s="8" t="n">
         <v>613</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="n">
+      <c r="A84" s="8" t="n">
         <v>620</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="n">
+      <c r="A85" s="8" t="n">
         <v>630</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="n">
+      <c r="A86" s="8" t="n">
         <v>710</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="n">
+      <c r="A87" s="8" t="n">
         <v>721</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="n">
+      <c r="A88" s="8" t="n">
         <v>722</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="n">
+      <c r="A89" s="8" t="n">
         <v>730</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="n">
+      <c r="A90" s="8" t="n">
         <v>741</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="n">
+      <c r="A91" s="8" t="n">
         <v>742</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="n">
+      <c r="A92" s="8" t="n">
         <v>743</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="n">
+      <c r="A93" s="8" t="n">
         <v>751</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="n">
+      <c r="A94" s="8" t="n">
         <v>752</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="n">
+      <c r="A95" s="8" t="n">
         <v>753</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="n">
+      <c r="A96" s="8" t="n">
         <v>761</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="n">
+      <c r="A97" s="8" t="n">
         <v>762</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="n">
+      <c r="A98" s="8" t="n">
         <v>771</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="n">
+      <c r="A99" s="8" t="n">
         <v>772</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="n">
+      <c r="A100" s="8" t="n">
         <v>773</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="n">
+      <c r="A101" s="8" t="n">
         <v>774</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="n">
+      <c r="A102" s="8" t="n">
         <v>780</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="n">
+      <c r="A103" s="8" t="n">
         <v>791</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="n">
+      <c r="A104" s="8" t="n">
         <v>792</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="n">
+      <c r="A105" s="8" t="n">
         <v>799</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="n">
+      <c r="A106" s="8" t="n">
         <v>811</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="n">
+      <c r="A107" s="8" t="n">
         <v>812</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="n">
+      <c r="A108" s="8" t="n">
         <v>819</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="n">
+      <c r="A109" s="8" t="n">
         <v>821</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="n">
+      <c r="A110" s="8" t="n">
         <v>822</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="n">
+      <c r="A111" s="8" t="n">
         <v>823</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="n">
+      <c r="A112" s="8" t="n">
         <v>831</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="n">
+      <c r="A113" s="8" t="n">
         <v>832</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="n">
+      <c r="A114" s="8" t="n">
         <v>841</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="n">
+      <c r="A115" s="8" t="n">
         <v>842</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="n">
+      <c r="A116" s="8" t="n">
         <v>843</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="n">
+      <c r="A117" s="8" t="n">
         <v>851</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="n">
+      <c r="A118" s="8" t="n">
         <v>852</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="n">
+      <c r="A119" s="8" t="n">
         <v>853</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="n">
+      <c r="A120" s="8" t="n">
         <v>854</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="n">
+      <c r="A121" s="8" t="n">
         <v>855</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="n">
+      <c r="A122" s="8" t="n">
         <v>861</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="n">
+      <c r="A123" s="8" t="n">
         <v>862</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="n">
+      <c r="A124" s="8" t="n">
         <v>863</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="n">
+      <c r="A125" s="8" t="n">
         <v>864</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="n">
+      <c r="A126" s="8" t="n">
         <v>871</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="n">
+      <c r="A127" s="8" t="n">
         <v>872</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="n">
+      <c r="A128" s="8" t="n">
         <v>873</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="n">
+      <c r="A129" s="8" t="n">
         <v>874</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="n">
+      <c r="A130" s="8" t="n">
         <v>875</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="n">
+      <c r="A131" s="8" t="n">
         <v>876</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="n">
+      <c r="A132" s="8" t="n">
         <v>881</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="n">
+      <c r="A133" s="8" t="n">
         <v>882</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="n">
+      <c r="A134" s="8" t="n">
         <v>891</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="n">
+      <c r="A135" s="8" t="n">
         <v>892</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="n">
+      <c r="A136" s="8" t="n">
         <v>899</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="n">
+      <c r="A137" s="8" t="n">
         <v>910</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="n">
+      <c r="A138" s="8" t="n">
         <v>921</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="n">
+      <c r="A139" s="8" t="n">
         <v>922</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="n">
+      <c r="A140" s="8" t="n">
         <v>930</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="n">
+      <c r="A141" s="8" t="n">
         <v>941</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="n">
+      <c r="A142" s="8" t="n">
         <v>942</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="n">
+      <c r="A143" s="8" t="n">
         <v>951</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="n">
+      <c r="A144" s="8" t="n">
         <v>952</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="n">
+      <c r="A145" s="8" t="n">
         <v>953</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="n">
+      <c r="A146" s="8" t="n">
         <v>991</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="n">
+      <c r="A147" s="8" t="n">
         <v>992</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="n">
+      <c r="A148" s="8" t="n">
         <v>999</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="n">
+      <c r="A149" s="8" t="n">
         <v>1011</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="n">
+      <c r="A150" s="8" t="n">
         <v>1012</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7370,758 +7113,758 @@
   </sheetPr>
   <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.7302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>337</v>
       </c>
     </row>
@@ -8149,21 +7892,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.3720930232558"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.2046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -8171,7 +7914,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -8179,7 +7922,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -8187,7 +7930,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -8195,7 +7938,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -8203,7 +7946,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -8211,7 +7954,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -8219,7 +7962,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -8227,7 +7970,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -8235,7 +7978,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -8243,7 +7986,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -8251,7 +7994,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -8259,7 +8002,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -8267,7 +8010,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -8275,7 +8018,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -8283,7 +8026,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -8291,7 +8034,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -8299,7 +8042,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -8307,7 +8050,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -8315,7 +8058,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>61</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -8323,7 +8066,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>111</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -8331,7 +8074,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>112</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -8339,7 +8082,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>121</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -8347,7 +8090,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>122</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -8355,7 +8098,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="13" t="n">
         <v>131</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -8363,7 +8106,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="13" t="n">
         <v>132</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -8371,7 +8114,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="13" t="n">
         <v>211</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -8379,7 +8122,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="13" t="n">
         <v>212</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -8387,7 +8130,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="13" t="n">
         <v>221</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -8395,7 +8138,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="13" t="n">
         <v>222</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -8403,7 +8146,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="13" t="n">
         <v>231</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -8411,7 +8154,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="13" t="n">
         <v>232</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -8419,7 +8162,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="13" t="n">
         <v>997</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -8427,7 +8170,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="13" t="n">
         <v>998</v>
       </c>
       <c r="B35" s="0" t="s">
